--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -291,7 +291,7 @@
     <t>Réflexion</t>
   </si>
   <si>
-    <t>En opposition à l'open world, peut-on concevoir un close world ? Une espèce de huis-clos du jeu vidéo, dont on utiliserait la particularité pour pousser un gameplay, une interaction avec l'environnement, au-delà de ce qu'on peut envisager autrement ? Un genre de level design dans un seul et unique espace ?</t>
+    <t>En opposition à l'open world, peut-on concevoir un close world ? Une espèce de huis-clos du jeu vidéo, dont on utiliserait la particularité pour pousser un gameplay, une interaction avec l'environnement, au-delà de ce qu'on peut envisager autrement ? Ça couplé avec une réflexion sur un level design dans un seul et unique espace ?</t>
   </si>
 </sst>
 </file>
@@ -659,7 +659,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="10755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="24920" windowHeight="10760"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Retirer la partie lecture de l'input, qui est déjà faite dans ArmController, ajouter dans le ArmModel des informations supplémentaires (cible sur une table, player près de la table, etc.) qui seront mises à jour par ArmController et qui permettront de changer le type d'animation dans ArmView après. Le script ThrowBezier doit être déclenché par ArmController (ou même ArmView ?).</t>
   </si>
   <si>
-    <t>A COMPLETER APRES L'AJUSTEMENT DES BRIS (type de bruit qui dépend de la surface). Régler au passage le pb de son quand trop d'assiettes se cassent en même tps (bruit de bris + voix) =&gt; peut-être créer un prefab d'objet sonore qui se crée et joue à chaque fois qu'une assiette se brise ? (et s'autodétruit automatiquement après la fin ?).</t>
-  </si>
-  <si>
     <t>En terme de fragilité : quand on lance une assiette doucement sur un mur proche, il ne faut pas qu'elle se casse. Tout ça dépend de la surface de réception. Ajouter un ScriptableObject Surface qui permette de définir ce paramètres ? (et le type de son au passage) Autre ajustement : quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale.</t>
   </si>
   <si>
@@ -292,6 +289,15 @@
   </si>
   <si>
     <t>En opposition à l'open world, peut-on concevoir un close world ? Une espèce de huis-clos du jeu vidéo, dont on utiliserait la particularité pour pousser un gameplay, une interaction avec l'environnement, au-delà de ce qu'on peut envisager autrement ? Ça couplé avec une réflexion sur un level design dans un seul et unique espace ?</t>
+  </si>
+  <si>
+    <t>Type de bruit qui dépend de la surface. Régler au passage le pb de son quand trop d'assiettes se cassent en même tps (bruit de bris + voix) =&gt; peut-être créer un prefab d'objet sonore qui se crée et joue à chaque fois qu'une assiette se brise ? (et s'autodétruit automatiquement après la fin ?).</t>
+  </si>
+  <si>
+    <t>Rectifier la position du verre quand on le lance</t>
+  </si>
+  <si>
+    <t>Créer une position et une rotation personnalisée pour le moment de lancement pour chaque couvert (sur le modèle de ce qui a été fait pour la position idle et la position hold)</t>
   </si>
 </sst>
 </file>
@@ -656,20 +662,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="78.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="78.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" customWidth="1"/>
+    <col min="6" max="6" width="31.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -709,7 +715,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -729,7 +735,7 @@
         <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -751,10 +757,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -766,44 +772,47 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -848,7 +857,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -863,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1023,7 +1032,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="30">
+    <row r="19" spans="1:6" ht="29">
       <c r="A19" s="2" t="s">
         <v>37</v>
       </c>
@@ -1065,10 +1074,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" t="s">
         <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>89</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1080,7 +1089,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1176,10 +1185,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -1190,16 +1199,13 @@
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -1211,15 +1217,15 @@
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -1230,13 +1236,16 @@
       <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -1250,7 +1259,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1267,7 +1276,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1281,16 +1290,13 @@
       <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -1302,35 +1308,35 @@
         <v>30</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C34">
         <v>-1</v>
       </c>
       <c r="D34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -1342,54 +1348,74 @@
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C36">
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F36">
-    <sortCondition descending="1" ref="C2:C36"/>
-    <sortCondition ref="E2:E36" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D36"/>
+  <sortState ref="A2:F37">
+    <sortCondition descending="1" ref="C2:C37"/>
+    <sortCondition ref="E2:E37" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1401,7 +1427,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1413,7 +1439,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$31</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -258,9 +258,6 @@
     <t>Retirer la partie lecture de l'input, qui est déjà faite dans ArmController, ajouter dans le ArmModel des informations supplémentaires (cible sur une table, player près de la table, etc.) qui seront mises à jour par ArmController et qui permettront de changer le type d'animation dans ArmView après. Le script ThrowBezier doit être déclenché par ArmController (ou même ArmView ?).</t>
   </si>
   <si>
-    <t>En terme de fragilité : quand on lance une assiette doucement sur un mur proche, il ne faut pas qu'elle se casse. Tout ça dépend de la surface de réception. Ajouter un ScriptableObject Surface qui permette de définir ce paramètres ? (et le type de son au passage) Autre ajustement : quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale.</t>
-  </si>
-  <si>
     <t>Le joueur peut ramasser des couverts déjà posés, voire nettoyer les bris</t>
   </si>
   <si>
@@ -298,6 +295,12 @@
   </si>
   <si>
     <t>Créer une position et une rotation personnalisée pour le moment de lancement pour chaque couvert (sur le modèle de ce qui a été fait pour la position idle et la position hold)</t>
+  </si>
+  <si>
+    <t>En terme de fragilité : quand on lance une assiette doucement sur un mur proche, il ne faut pas qu'elle se casse (où quand deux assiettes sont déjà posées l'une sur l'autre sur le vaisselier par ex). Tout ça dépend de la surface de réception. Utiliser le SciptableObject Surface prévu à cet effet. Autre ajustement : quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale.</t>
+  </si>
+  <si>
+    <t>Ajout d'assets sonores (bris de couverts, bruit d'un couvert qui tombe sur les bris ou sur d'autres couverts, etc.)</t>
   </si>
 </sst>
 </file>
@@ -662,11 +665,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="A7:XFD7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
@@ -700,10 +701,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -715,35 +716,32 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>79</v>
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -754,25 +752,28 @@
       <c r="E4" t="s">
         <v>29</v>
       </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -797,30 +798,30 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -828,19 +829,19 @@
       <c r="D8">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>51</v>
+      <c r="E8" t="s">
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -852,15 +853,15 @@
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C10">
         <v>3</v>
@@ -871,33 +872,33 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -907,9 +908,6 @@
       </c>
       <c r="E12" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1074,10 +1072,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" t="s">
         <v>87</v>
-      </c>
-      <c r="B21" t="s">
-        <v>88</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1089,7 +1087,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1185,10 +1183,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>3</v>
       </c>
       <c r="C27">
         <v>-1</v>
@@ -1198,14 +1196,17 @@
       </c>
       <c r="E27" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -1215,17 +1216,14 @@
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F28" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -1237,15 +1235,15 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -1255,14 +1253,17 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -1276,7 +1277,7 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -1293,7 +1294,7 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -1306,17 +1307,14 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -1328,35 +1326,35 @@
         <v>30</v>
       </c>
       <c r="F34" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C35">
         <v>-1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -1368,54 +1366,74 @@
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>-1</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F37">
-    <sortCondition descending="1" ref="C2:C37"/>
-    <sortCondition ref="E2:E37" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D37"/>
+  <sortState ref="A2:F38">
+    <sortCondition descending="1" ref="C2:C38"/>
+    <sortCondition ref="E2:E38" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D38"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -270,9 +270,6 @@
     <t>Ajouter un registre des couverts posés à chaque table</t>
   </si>
   <si>
-    <t>Qui sera à utiliser dans le gestionnaire d'événement. Il devra se mettre à jour dynamiquement, certains couverts pouvant être sur la table, puis tomber après coup, ou être cassés.</t>
-  </si>
-  <si>
     <t>Screenshake quand un couvert se casse</t>
   </si>
   <si>
@@ -301,6 +298,9 @@
   </si>
   <si>
     <t>Ajout d'assets sonores (bris de couverts, bruit d'un couvert qui tombe sur les bris ou sur d'autres couverts, etc.)</t>
+  </si>
+  <si>
+    <t>Qui sera à utiliser dans le gestionnaire d'événement. Il devra se mettre à jour dynamiquement, certains couverts pouvant être sur la table, puis tomber après coup, ou être cassés. Note : le fait de connaître aussi les couverts cassés ou pas en place permettra d'ajouter un score de propreté.</t>
   </si>
 </sst>
 </file>
@@ -667,7 +667,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
@@ -716,7 +718,7 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -738,7 +740,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -753,7 +755,7 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -773,7 +775,7 @@
         <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -895,7 +897,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
         <v>3</v>
@@ -1072,10 +1074,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
         <v>86</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1087,7 +1089,7 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1198,15 +1200,15 @@
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" t="s">
         <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>85</v>
       </c>
       <c r="C28">
         <v>-1</v>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="24920" windowHeight="10760"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="24915" windowHeight="10755"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -668,17 +668,17 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="78.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" customWidth="1"/>
-    <col min="6" max="6" width="31.453125" customWidth="1"/>
+    <col min="1" max="1" width="78.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -703,22 +703,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -780,30 +780,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -811,19 +811,19 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>51</v>
+      <c r="E7" t="s">
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -835,15 +835,15 @@
         <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -854,33 +854,33 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
+      </c>
+      <c r="F10" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -891,93 +891,93 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -989,32 +989,32 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
@@ -1029,75 +1029,72 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
+      <c r="A21" t="s">
+        <v>75</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -1108,13 +1105,16 @@
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -1125,16 +1125,13 @@
       <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -1148,7 +1145,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -1162,25 +1159,28 @@
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>-1</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1432,10 +1432,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F38">
-    <sortCondition descending="1" ref="C2:C38"/>
-    <sortCondition ref="E2:E38" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D38"/>
+  <sortState ref="A2:F39">
+    <sortCondition descending="1" ref="C2:C39"/>
+    <sortCondition ref="E2:E39" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D39"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1447,7 +1447,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1459,7 +1459,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -668,7 +668,7 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$32</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>Qui sera à utiliser dans le gestionnaire d'événement. Il devra se mettre à jour dynamiquement, certains couverts pouvant être sur la table, puis tomber après coup, ou être cassés. Note : le fait de connaître aussi les couverts cassés ou pas en place permettra d'ajouter un score de propreté.</t>
+  </si>
+  <si>
+    <t>Des nouveaux contrôles pour esquiver les NPC ?</t>
+  </si>
+  <si>
+    <t>Pour enrichir le gameplay, dans cette perspective du close world…permettrait de rajouter un peu de variété, et pourquoi pas d'y associer des bonus de points (voire des malus quand on rentre dans un NPC en pleine course)</t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -703,22 +709,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -740,7 +746,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -749,41 +755,41 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="s">
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -791,19 +797,19 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -815,15 +821,15 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -834,16 +840,13 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -853,6 +856,9 @@
       </c>
       <c r="E9" t="s">
         <v>29</v>
+      </c>
+      <c r="F9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -914,50 +920,50 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -969,32 +975,32 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1009,15 +1015,15 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1029,7 +1035,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1353,10 +1359,10 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -1368,15 +1374,15 @@
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -1388,54 +1394,74 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B39" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C39">
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F39">
-    <sortCondition descending="1" ref="C2:C39"/>
-    <sortCondition ref="E2:E39" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D39"/>
+  <sortState ref="A2:F40">
+    <sortCondition descending="1" ref="C2:C40"/>
+    <sortCondition ref="E2:E40" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D40"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$34</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>Pour enrichir le gameplay, dans cette perspective du close world…permettrait de rajouter un peu de variété, et pourquoi pas d'y associer des bonus de points (voire des malus quand on rentre dans un NPC en pleine course)</t>
+  </si>
+  <si>
+    <t>Dans le tableau de scores, remplacer remaining time par missed tables</t>
+  </si>
+  <si>
+    <t>Gérer les collisions du bras et des couverts aux abords d'un mur</t>
+  </si>
+  <si>
+    <t>voir vidéo tuto YouTube</t>
   </si>
 </sst>
 </file>
@@ -671,10 +680,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -709,7 +718,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -722,9 +731,6 @@
       </c>
       <c r="E2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -766,30 +772,30 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -797,19 +803,19 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>29</v>
+      <c r="E6" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -821,15 +827,15 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -840,13 +846,16 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -857,36 +866,33 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="F9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -897,73 +903,73 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
+      <c r="F11" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -975,32 +981,32 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>71</v>
-      </c>
-      <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
-      <c r="A17" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1015,89 +1021,92 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30">
+      <c r="A18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>29</v>
-      </c>
-      <c r="F18" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
-        <v>75</v>
-      </c>
-      <c r="B21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21">
-        <v>-1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1112,15 +1121,15 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -1134,10 +1143,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -1148,13 +1157,16 @@
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F24" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1165,56 +1177,50 @@
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>-1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F26" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="C27">
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F27" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>-1</v>
@@ -1224,14 +1230,17 @@
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F28" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -1243,15 +1252,15 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -1261,14 +1270,11 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F30" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
         <v>45</v>
@@ -1282,13 +1288,16 @@
       <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F31" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -1298,14 +1307,17 @@
       </c>
       <c r="E32" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -1319,7 +1331,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -1332,17 +1344,14 @@
       </c>
       <c r="E34" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F34" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>-1</v>
@@ -1352,57 +1361,54 @@
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F35" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>-1</v>
       </c>
       <c r="D36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>-1</v>
@@ -1414,54 +1420,94 @@
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C39">
         <v>-1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40">
+        <v>-1</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>-1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-1</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1" t="s">
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F42" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F40">
-    <sortCondition descending="1" ref="C2:C40"/>
-    <sortCondition ref="E2:E40" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D40"/>
+  <sortState ref="A2:F41">
+    <sortCondition descending="1" ref="C2:C41"/>
+    <sortCondition ref="E2:E41" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -683,7 +683,7 @@
   <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -718,10 +718,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -735,27 +735,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
+      </c>
+      <c r="F3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -767,35 +770,35 @@
         <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
+      <c r="E5" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -803,19 +806,19 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
+      <c r="E6" t="s">
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -827,15 +830,15 @@
         <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -846,16 +849,13 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -866,33 +866,36 @@
       <c r="E9" t="s">
         <v>29</v>
       </c>
+      <c r="F9" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -903,73 +906,73 @@
       <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F11" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -981,32 +984,32 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B17" t="s">
         <v>36</v>
@@ -1021,15 +1024,15 @@
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1041,67 +1044,64 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>85</v>
+      <c r="A21" t="s">
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C21">
+        <v>-1</v>
+      </c>
+      <c r="D21">
         <v>0</v>
       </c>
-      <c r="D21">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F21" t="s">
-        <v>87</v>
+      <c r="E21" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1504,10 +1504,10 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F41">
-    <sortCondition descending="1" ref="C2:C41"/>
-    <sortCondition ref="E2:E41" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D41"/>
+  <sortState ref="A2:F42">
+    <sortCondition descending="1" ref="C2:C42"/>
+    <sortCondition ref="E2:E42" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D42"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -294,9 +294,6 @@
     <t>Créer une position et une rotation personnalisée pour le moment de lancement pour chaque couvert (sur le modèle de ce qui a été fait pour la position idle et la position hold)</t>
   </si>
   <si>
-    <t>En terme de fragilité : quand on lance une assiette doucement sur un mur proche, il ne faut pas qu'elle se casse (où quand deux assiettes sont déjà posées l'une sur l'autre sur le vaisselier par ex). Tout ça dépend de la surface de réception. Utiliser le SciptableObject Surface prévu à cet effet. Autre ajustement : quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale.</t>
-  </si>
-  <si>
     <t>Ajout d'assets sonores (bris de couverts, bruit d'un couvert qui tombe sur les bris ou sur d'autres couverts, etc.)</t>
   </si>
   <si>
@@ -316,6 +313,15 @@
   </si>
   <si>
     <t>voir vidéo tuto YouTube</t>
+  </si>
+  <si>
+    <t>Gérer les collisions douces avec des couverts fragiles</t>
+  </si>
+  <si>
+    <t>Quand on lance une assiette sur un mur très proche, il ne faut pas qu'elle se casse (où quand deux assiettes sont déjà posées l'une sur l'autre sur le vaisselier par ex). Tout ça dépend de la surface de réception ? Utiliser le SciptableObject Surface prévu à cet effet.</t>
+  </si>
+  <si>
+    <t>Quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale (en particulier la même direction).</t>
   </si>
 </sst>
 </file>
@@ -377,13 +383,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Neutre" xfId="2" builtinId="28"/>
@@ -680,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -718,27 +725,30 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -750,35 +760,35 @@
         <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -786,19 +796,19 @@
       <c r="D5">
         <v>2</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>51</v>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -810,15 +820,15 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -829,16 +839,13 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" t="s">
-        <v>80</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -849,33 +856,36 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
+      <c r="F8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -886,73 +896,73 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -964,27 +974,27 @@
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" t="s">
-        <v>27</v>
+      <c r="F15" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1029,7 +1039,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
         <v>45</v>
@@ -1044,7 +1054,7 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1089,10 +1099,10 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -1106,7 +1116,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -1120,16 +1130,13 @@
       <c r="E22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>-1</v>
@@ -1140,13 +1147,16 @@
       <c r="E23" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -1157,16 +1167,13 @@
       <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1177,13 +1184,16 @@
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F25" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -1197,7 +1207,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
         <v>23</v>
@@ -1211,36 +1221,33 @@
       <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
       <c r="C28">
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -1252,15 +1259,15 @@
         <v>30</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -1270,14 +1277,17 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F30" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>16</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -1287,17 +1297,14 @@
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F31" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>-1</v>
@@ -1309,15 +1316,15 @@
         <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -1327,14 +1334,17 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -1348,7 +1358,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1365,7 +1375,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -1378,17 +1388,14 @@
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F36" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>-1</v>
@@ -1400,35 +1407,35 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -1440,15 +1447,15 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -1460,54 +1467,74 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>-1</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>-1</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
         <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:F42">
-    <sortCondition descending="1" ref="C2:C42"/>
-    <sortCondition ref="E2:E42" customList="wip,todo,done"/>
-    <sortCondition ref="D2:D42"/>
+  <sortState ref="A2:F43">
+    <sortCondition descending="1" ref="C2:C43"/>
+    <sortCondition ref="E2:E43" customList="wip,todo,done"/>
+    <sortCondition ref="D2:D43"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$36</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>Quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale (en particulier la même direction).</t>
+  </si>
+  <si>
+    <t>Débugger rendu 2D anims URP</t>
+  </si>
+  <si>
+    <t>Des sprites 2D qui s'affichent mal, suite au changement de rendu graphique en URP (Universal Render Pipeline)</t>
   </si>
 </sst>
 </file>
@@ -687,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -725,10 +731,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -740,15 +746,15 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -756,11 +762,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>29</v>
+      <c r="E3" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1432,10 +1438,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -1447,15 +1453,15 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -1467,15 +1473,15 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -1487,46 +1493,66 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>-1</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
         <v>67</v>
       </c>
     </row>

--- a/TODO vertical slice.xlsx
+++ b/TODO vertical slice.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$F$35</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="101">
   <si>
     <t>Ajuster inclinaison du target viewer selon la pente de l'objet</t>
   </si>
@@ -321,13 +321,7 @@
     <t>Quand on lance une assiette sur un mur très proche, il ne faut pas qu'elle se casse (où quand deux assiettes sont déjà posées l'une sur l'autre sur le vaisselier par ex). Tout ça dépend de la surface de réception ? Utiliser le SciptableObject Surface prévu à cet effet.</t>
   </si>
   <si>
-    <t>Quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale (en particulier la même direction).</t>
-  </si>
-  <si>
-    <t>Débugger rendu 2D anims URP</t>
-  </si>
-  <si>
-    <t>Des sprites 2D qui s'affichent mal, suite au changement de rendu graphique en URP (Universal Render Pipeline)</t>
+    <t>Quand une assiette se casse sur un obstacle, il faut que les bris possèdent la même vélocité que l'assiette initiale (en particulier la même direction) =&gt; réglé plus simplement, en ajoutant une force explosive à chaque bris, ça fait le taf.</t>
   </si>
 </sst>
 </file>
@@ -693,10 +687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -731,10 +725,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -746,15 +740,15 @@
         <v>51</v>
       </c>
       <c r="F2" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -762,42 +756,42 @@
       <c r="D3">
         <v>2</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>51</v>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
+      <c r="E4" t="s">
+        <v>29</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -805,19 +799,16 @@
       <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -826,72 +817,72 @@
         <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>29</v>
       </c>
+      <c r="F7" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
       <c r="F9" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -902,13 +893,16 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
+      <c r="F10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -920,78 +914,78 @@
         <v>29</v>
       </c>
       <c r="F11" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="F13" t="s">
-        <v>14</v>
+      <c r="F13" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
         <v>29</v>
       </c>
       <c r="F14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>98</v>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="30">
+      <c r="A15" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -999,19 +993,19 @@
       <c r="E15" t="s">
         <v>29</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>99</v>
+      <c r="F15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
-        <v>71</v>
+      <c r="A16" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>2</v>
@@ -1020,35 +1014,35 @@
         <v>29</v>
       </c>
       <c r="F16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="30">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="s">
         <v>29</v>
       </c>
       <c r="F17" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1060,55 +1054,49 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>76</v>
+      <c r="A19" t="s">
+        <v>64</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C19">
+        <v>-1</v>
+      </c>
+      <c r="D19">
         <v>0</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" t="s">
-        <v>78</v>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="2" t="s">
-        <v>85</v>
+      <c r="A20" t="s">
+        <v>95</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="C20">
+        <v>-1</v>
+      </c>
+      <c r="D20">
         <v>0</v>
       </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" t="s">
-        <v>87</v>
+      <c r="E20" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -1119,13 +1107,16 @@
       <c r="E21" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F21" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -1139,7 +1130,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -1154,15 +1145,15 @@
         <v>30</v>
       </c>
       <c r="F23" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C24">
         <v>-1</v>
@@ -1176,10 +1167,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>-1</v>
@@ -1190,16 +1181,13 @@
       <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C26">
         <v>-1</v>
@@ -1210,50 +1198,56 @@
       <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>-1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>-1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F28" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>-1</v>
@@ -1263,17 +1257,14 @@
       </c>
       <c r="E29" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>-1</v>
@@ -1285,15 +1276,15 @@
         <v>30</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>50</v>
       </c>
       <c r="C31">
         <v>-1</v>
@@ -1303,11 +1294,14 @@
       </c>
       <c r="E31" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B32" t="s">
         <v>45</v>
@@ -1321,16 +1315,13 @@
       <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>-1</v>
@@ -1340,17 +1331,14 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F33" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>-1</v>
@@ -1364,7 +1352,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1377,14 +1365,17 @@
       </c>
       <c r="E35" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C36">
         <v>-1</v>
@@ -1394,11 +1385,14 @@
       </c>
       <c r="E36" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="F36" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -1407,41 +1401,41 @@
         <v>-1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="C38">
         <v>-1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C39">
         <v>-1</v>
@@ -1453,15 +1447,15 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C40">
         <v>-1</v>
@@ -1473,15 +1467,15 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41">
         <v>-1</v>
@@ -1493,66 +1487,46 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="C42">
         <v>-1</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>-1</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>-1</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" t="s">
         <v>67</v>
       </c>
     </row>
